--- a/data/long_razon/P29-Estudios-long_razon.xlsx
+++ b/data/long_razon/P29-Estudios-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-21,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-53,5; 20,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 91,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 64,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 22,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-29,72; 24,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 37,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-18,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-36,66; 1,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 34,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,59; 9,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 31,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,46; -0,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 24,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-25,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,49%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-45,78; -1,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 36,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,75; 21,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,95; 12,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 3,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 15,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-21,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,175 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,6; -5,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 29,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 12,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 14,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,83; -1,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 15,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/P29-Estudios-long_razon.xlsx
+++ b/data/long_razon/P29-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.3512202549240186</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.3304785802285467</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.6111285517347068</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.08577363429516745</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.09825628180185697</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.1931446051203299</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.2205263870399628</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.1899653813662992</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.3914714051145334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.6286477421844509</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.07348663475883269</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.8093944502048027</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.3746408766029224</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.1700512032517577</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.447829831091442</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.4409749054719128</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.04217985912720384</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.5997041516171394</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-0.01277461597991298</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.9035310713472087</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-0.3334631888588281</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.3699545095576554</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.4336358015874997</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.1541228416036702</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.02751289016822234</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.4778872777108135</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.193051587984896</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.1612026304119716</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.06509380613257168</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.1907053739928818</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.1213164840678728</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.1100382360133896</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.09017218981860829</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.1415627882906042</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.08737347004608104</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.06584808655268691</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.3798794616096408</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1802594363317096</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.4233472284333015</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.2934217341278383</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.07721172507023005</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.1549906221862175</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2862078082021405</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.07386294707400808</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.2409001101561726</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.08588914473721057</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.3639015231630257</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.09920034707414944</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1362539191436385</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3710900123789264</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.3784341988949906</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.02702970240858854</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.278117951704393</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.1472411217991806</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,233 +853,230 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.2572018464728234</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.1015491351177021</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3818506428690477</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.08058241027280458</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.1016508772060927</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.2550368735515688</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.1742023356695514</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.005937125428386605</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.02650024124017484</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.4794153588495114</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.1359304065283205</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.06871697092458784</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.306298480622664</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.2932019992938649</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.4084213527809768</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.3274125210852886</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.1459921895548851</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.1466471915592014</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.02547962123830735</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.3908445223239061</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.9259619390742336</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.2169982766103463</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.1031956119258573</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-0.05078437254255282</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.0288001764423486</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.1736819939654545</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.2575115949501638</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.2286786708605636</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.1254384469793274</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1492284686950966</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.1018556082606706</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.04016741472870477</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.1083997884940884</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.167135732004458</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.08023111844689433</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.1287619057107515</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3768549676978142</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.02629375848765954</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.3269668415789713</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2371075834108773</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.093709730882203</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2439309533741201</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2638290623653215</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.02544510521882679</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.2373389379892727</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.08593588572502414</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.3290738606229902</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.05312174705334136</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.04777871657845406</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.1701774814403618</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.03843899615107162</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>-0.06539220327889012</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.1853186438391724</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.01141385898932139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
